--- a/data-raw/Copy of navlinks.xlsx
+++ b/data-raw/Copy of navlinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\OneDrive\Desktop\New Shiny Apps\ACCESSLandingPage\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C7E066-E5E4-4AB7-B0EE-3BF40143F62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8210CB1F-B39E-4A36-9346-FB45ECF9B1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2DDE7F5-3915-430B-BDDB-1BA09EB881D0}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>https://calendly.com/swenzler/navigatorappt</t>
   </si>
   <si>
-    <t>Mikhaela - (Mon, Thurs)</t>
-  </si>
-  <si>
     <t>Navigator</t>
   </si>
   <si>
@@ -188,12 +185,15 @@
   <si>
     <t>https://calendly.com/eozmat/navigatorappt</t>
   </si>
+  <si>
+    <t>Mikhaela - (Mon, Wed)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,165 +582,165 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.08203125" customWidth="1"/>
     <col min="4" max="4" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="252">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="168">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
